--- a/biology/Zoologie/Euselasia_urites/Euselasia_urites.xlsx
+++ b/biology/Zoologie/Euselasia_urites/Euselasia_urites.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Euselasia urites est un insecte lépidoptère appartenant à la famille  des Riodinidae et au genre Euselasia.
 </t>
@@ -511,12 +523,12 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Euselasia urites a été décrit par  William Chapman Hewitson en 1853 sous le nom de Eurygona urites[1]
-Sous-espèces
-Euselasia urites urites présent au Brésil.
-Euselasia urites eglawahe Brévignon et Gallard, 1993; présent en Guyane[1].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Euselasia urites a été décrit par  William Chapman Hewitson en 1853 sous le nom de Eurygona urites
+</t>
         </is>
       </c>
     </row>
@@ -541,13 +553,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Euselasia urites est un papillon de couleur noire suffusé de cuivré. L'autre face est de couleur beige suffusé de cuivré rayé d'une ligne cuivre avec aux postérieures une fine bordure cuivre doublée d'une ligne submarginale d'ocelles blancs chapeautés de noir.
-</t>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Euselasia urites urites présent au Brésil.
+Euselasia urites eglawahe Brévignon et Gallard, 1993; présent en Guyane.</t>
         </is>
       </c>
     </row>
@@ -572,10 +590,17 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Euselasia urites est un papillon de couleur noire suffusé de cuivré. L'autre face est de couleur beige suffusé de cuivré rayé d'une ligne cuivre avec aux postérieures une fine bordure cuivre doublée d'une ligne submarginale d'ocelles blancs chapeautés de noir.
+</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -598,15 +623,80 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Euselasia_urites</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Euselasia_urites</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Euselasia urites est présent en Guyane et au Brésil[1].
-Biotope
-Il réside dans la forêt tropicale.
-Protection</t>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Euselasia urites est présent en Guyane et au Brésil.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Euselasia_urites</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Euselasia_urites</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il réside dans la forêt tropicale.
+</t>
         </is>
       </c>
     </row>
